--- a/URS/DbLayouts/L2-業務作業/ClBuildingOwner.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClBuildingOwner.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1EAF9-D79B-4DDF-82B1-D4CC647EABDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -130,25 +129,10 @@
     <t>擔保品-代號2</t>
   </si>
   <si>
-    <t>所有權人統編</t>
-  </si>
-  <si>
-    <t>所有權人姓名</t>
-  </si>
-  <si>
     <t>clNoEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>擔保品-建物所有權人檔</t>
-  </si>
-  <si>
-    <t>OwnerName</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
     <t>與授信戶關係</t>
   </si>
   <si>
@@ -162,36 +146,12 @@
   </si>
   <si>
     <t>持份比率(分母)</t>
-  </si>
-  <si>
-    <t>ClBuildingOwner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ClBuilding(ClCode1,ClCode2,ClNo)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OwnerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClCode1,ClCode2,ClNo,OwnerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownerIdEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OwnerId = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ClCode1,ClCode2,ClNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,13 +177,44 @@
   </si>
   <si>
     <t>參考CdGuarantor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品-建物所有權人檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClCode1,ClCode2,ClNo</t>
+  </si>
+  <si>
+    <t>ClCode1,ClCode2,ClNo,OwnerCustUKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OwnerCustUKey = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKeyEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClBuildingOwner</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -435,7 +426,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,23 +517,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -578,23 +552,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -794,10 +751,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -807,7 +764,7 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>20</v>
@@ -822,7 +779,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -835,10 +792,10 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -850,7 +807,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -863,7 +820,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -876,7 +833,7 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -927,6 +884,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -946,6 +904,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
+        <f t="shared" ref="A11:A19" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -965,72 +924,76 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="18">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E14" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>59</v>
-      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>13</v>
@@ -1043,92 +1006,86 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18">
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="18">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>6</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18">
-        <v>6</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
@@ -1303,15 +1260,6 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1320,12 +1268,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1349,7 +1297,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
@@ -1357,21 +1305,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
